--- a/fast_chargers.xlsx
+++ b/fast_chargers.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e269ce536976a1eb/GoodNotes/S3 - BEFD/Final Project/Potential Projects/Lithium/Datasets/Mario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2A0D7316-6C30-4C35-A2BC-7B94D7FF4957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{2A0D7316-6C30-4C35-A2BC-7B94D7FF4957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D8E9681-7BFE-42C4-B9CD-C93091A4CBC2}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fast-publicly-available-charger" sheetId="1" r:id="rId1"/>
@@ -28,19 +28,19 @@
     <t>Europe</t>
   </si>
   <si>
-    <t>United States</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>Other countries</t>
+    <t>United_States</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>Other_countries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -875,16 +875,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -893,10 +895,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
